--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>214657.2869970242</v>
+        <v>237259.9446797116</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466441.6037838849</v>
+        <v>678520.9295115493</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25614485.7697948</v>
+        <v>25318644.53642768</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4539671.499186424</v>
+        <v>4628589.368521985</v>
       </c>
     </row>
     <row r="11">
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4001,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4.989972071206591</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4068,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>18.96396538711673</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4107,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>50.25853933661305</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>50.25853933661305</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>28.51067308655945</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>28.51067308655945</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.762806836505852</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.762806836505852</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.762806836505852</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.762806836505852</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>6.762806836505852</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>8.061154451634053</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>29.37623816331159</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>50.69132187498912</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>72.00640558666666</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>72.00640558666666</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>72.00640558666666</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>72.00640558666666</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>72.00640558666666</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>72.00640558666666</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>72.00640558666666</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>72.00640558666666</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>72.00640558666666</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>72.00640558666666</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>72.00640558666666</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>42.62581785010505</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>42.62581785010505</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>42.62581785010505</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>42.62581785010505</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>42.62581785010505</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>20.87795160005145</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>23.03751471868178</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>44.35259843035931</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>65.66768214203685</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>86.12155035021226</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>86.12155035021226</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.12155035021226</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>86.12155035021226</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>64.37368410015866</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>42.62581785010505</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>42.62581785010505</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>42.62581785010505</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>42.62581785010505</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>42.62581785010505</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.722431007004245</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8063,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>73.99276488738508</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M3" t="n">
-        <v>57.75069317402355</v>
+        <v>83.92045636931252</v>
       </c>
       <c r="N3" t="n">
-        <v>37.99368400879879</v>
+        <v>64.85608296530633</v>
       </c>
       <c r="O3" t="n">
-        <v>67.58149565199844</v>
+        <v>92.15534270158889</v>
       </c>
       <c r="P3" t="n">
         <v>82.80031984638366</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>58.22273991262165</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M6" t="n">
-        <v>39.34781785249876</v>
+        <v>83.92045636931253</v>
       </c>
       <c r="N6" t="n">
-        <v>19.10373933697781</v>
+        <v>64.85608296530633</v>
       </c>
       <c r="O6" t="n">
-        <v>50.30088672752632</v>
+        <v>92.15534270158891</v>
       </c>
       <c r="P6" t="n">
-        <v>68.93110769910052</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8535,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>58.22273991262165</v>
+        <v>73.99276488738511</v>
       </c>
       <c r="M9" t="n">
-        <v>39.34781785249876</v>
+        <v>57.75069317402358</v>
       </c>
       <c r="N9" t="n">
-        <v>19.10373933697781</v>
+        <v>37.99368400879879</v>
       </c>
       <c r="O9" t="n">
-        <v>50.30088672752632</v>
+        <v>67.58149565199844</v>
       </c>
       <c r="P9" t="n">
-        <v>68.93110769910052</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8696,10 +8698,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232903</v>
       </c>
       <c r="N11" t="n">
-        <v>111.9488011414238</v>
+        <v>83.98878642167108</v>
       </c>
       <c r="O11" t="n">
         <v>99.00804712831379</v>
@@ -8772,19 +8774,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>57.07593346819698</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M12" t="n">
-        <v>38.00954882322068</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N12" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>49.04422963853119</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P12" t="n">
-        <v>67.92252959633595</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8933,10 +8935,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>116.8735187081365</v>
+        <v>89.358722162329</v>
       </c>
       <c r="N14" t="n">
-        <v>111.9488011414238</v>
+        <v>83.98878642167105</v>
       </c>
       <c r="O14" t="n">
         <v>99.00804712831379</v>
@@ -9009,19 +9011,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>57.07593346819701</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M15" t="n">
-        <v>38.00954882322068</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N15" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>49.04422963853119</v>
+        <v>29.09636626239168</v>
       </c>
       <c r="P15" t="n">
-        <v>67.92252959633598</v>
+        <v>51.91261060228354</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9170,10 +9172,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N17" t="n">
-        <v>111.9488011414238</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O17" t="n">
         <v>99.00804712831379</v>
@@ -9246,19 +9248,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>57.07593346819701</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M18" t="n">
-        <v>38.00954882322068</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N18" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>49.04422963853119</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P18" t="n">
-        <v>67.92252959633598</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9407,13 +9409,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N20" t="n">
-        <v>111.9488011414238</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O20" t="n">
-        <v>99.00804712831379</v>
+        <v>99.00804712831382</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9483,19 +9485,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>57.07593346819701</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M21" t="n">
-        <v>38.00954882322068</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N21" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>49.04422963853119</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P21" t="n">
-        <v>67.92252959633598</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9644,10 +9646,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N23" t="n">
-        <v>111.9488011414238</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O23" t="n">
         <v>99.00804712831379</v>
@@ -9720,19 +9722,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>57.07593346819701</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M24" t="n">
-        <v>38.00954882322068</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N24" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>49.04422963853119</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P24" t="n">
-        <v>67.92252959633598</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9881,10 +9883,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N26" t="n">
-        <v>111.9488011414238</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O26" t="n">
         <v>99.00804712831379</v>
@@ -9957,19 +9959,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>57.07593346819701</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M27" t="n">
-        <v>38.00954882322068</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N27" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>49.04422963853119</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P27" t="n">
-        <v>67.92252959633598</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10118,10 +10120,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N29" t="n">
-        <v>111.9488011414238</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O29" t="n">
         <v>99.00804712831379</v>
@@ -10194,19 +10196,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>57.07593346819701</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M30" t="n">
-        <v>38.00954882322068</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N30" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>49.04422963853119</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P30" t="n">
-        <v>67.92252959633598</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10355,10 +10357,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N32" t="n">
-        <v>111.9488011414238</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O32" t="n">
         <v>99.00804712831379</v>
@@ -10431,19 +10433,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>57.07593346819701</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M33" t="n">
-        <v>38.00954882322068</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N33" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>49.04422963853119</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P33" t="n">
-        <v>67.92252959633598</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10592,10 +10594,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N35" t="n">
-        <v>111.9488011414238</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O35" t="n">
         <v>99.00804712831379</v>
@@ -10668,19 +10670,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>57.07593346819701</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M36" t="n">
-        <v>38.00954882322068</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N36" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>49.04422963853119</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P36" t="n">
-        <v>67.92252959633598</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10829,10 +10831,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N38" t="n">
-        <v>111.9488011414238</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O38" t="n">
         <v>99.00804712831379</v>
@@ -10905,19 +10907,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>57.07593346819701</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M39" t="n">
-        <v>38.00954882322068</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N39" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>49.04422963853119</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P39" t="n">
-        <v>67.92252959633598</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11066,13 +11068,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N41" t="n">
-        <v>111.9488011414238</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O41" t="n">
-        <v>99.00804712831379</v>
+        <v>99.00804712831382</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11142,19 +11144,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>57.07593346819701</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M42" t="n">
-        <v>38.00954882322068</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N42" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>49.04422963853119</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P42" t="n">
-        <v>67.92252959633598</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11303,10 +11305,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>116.8735187081365</v>
+        <v>88.4511269796204</v>
       </c>
       <c r="N44" t="n">
-        <v>111.9488011414238</v>
+        <v>82.71812121955085</v>
       </c>
       <c r="O44" t="n">
         <v>99.00804712831379</v>
@@ -11379,19 +11381,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>57.07593346819701</v>
+        <v>24.02657182572204</v>
       </c>
       <c r="M45" t="n">
-        <v>38.00954882322068</v>
+        <v>20.97289021168726</v>
       </c>
       <c r="N45" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>49.04422963853119</v>
+        <v>34.35951327659757</v>
       </c>
       <c r="P45" t="n">
-        <v>67.92252959633598</v>
+        <v>59.51718883446107</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22559,49 +22561,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.4828842901392</v>
+        <v>422.6759211308218</v>
       </c>
       <c r="H2" t="n">
-        <v>352.7559106155991</v>
+        <v>354.7328491602397</v>
       </c>
       <c r="I2" t="n">
-        <v>264.9395304164745</v>
+        <v>272.3815832168904</v>
       </c>
       <c r="J2" t="n">
-        <v>126.8306476072186</v>
+        <v>143.2144081641032</v>
       </c>
       <c r="K2" t="n">
-        <v>96.74614482954047</v>
+        <v>121.3011548525195</v>
       </c>
       <c r="L2" t="n">
-        <v>61.47033764627412</v>
+        <v>91.93299888229322</v>
       </c>
       <c r="M2" t="n">
-        <v>25.56910949601522</v>
+        <v>59.46468964752347</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2214452136497</v>
+        <v>58.66549128874738</v>
       </c>
       <c r="O2" t="n">
-        <v>50.93671224565088</v>
+        <v>83.46124823621099</v>
       </c>
       <c r="P2" t="n">
-        <v>95.27410653902663</v>
+        <v>123.0330455252351</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.3402047289868</v>
+        <v>171.1860118582497</v>
       </c>
       <c r="R2" t="n">
-        <v>228.6488042124114</v>
+        <v>240.7746546559397</v>
       </c>
       <c r="S2" t="n">
-        <v>242.1563016843589</v>
+        <v>246.5551286914136</v>
       </c>
       <c r="T2" t="n">
-        <v>220.6670294055369</v>
+        <v>221.512048175625</v>
       </c>
       <c r="U2" t="n">
-        <v>248.8130185540101</v>
+        <v>248.8284615012647</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22638,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.176718209428</v>
+        <v>161.2800020247046</v>
       </c>
       <c r="H3" t="n">
-        <v>139.3125383858557</v>
+        <v>140.310042601816</v>
       </c>
       <c r="I3" t="n">
-        <v>122.5198839159847</v>
+        <v>126.0759275559885</v>
       </c>
       <c r="J3" t="n">
-        <v>96.74021199285306</v>
+        <v>106.4982675405373</v>
       </c>
       <c r="K3" t="n">
-        <v>37.15999050502471</v>
+        <v>53.83806167623734</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22665,22 +22667,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>19.7226787259216</v>
       </c>
       <c r="Q3" t="n">
-        <v>74.4739936679631</v>
+        <v>87.65808208817585</v>
       </c>
       <c r="R3" t="n">
-        <v>164.4350525164654</v>
+        <v>170.8477090474073</v>
       </c>
       <c r="S3" t="n">
-        <v>211.0269662249707</v>
+        <v>212.9454177938134</v>
       </c>
       <c r="T3" t="n">
-        <v>230.7472684222575</v>
+        <v>231.1635746776924</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6669910289033</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22717,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.3699888987368</v>
+        <v>169.4565785799364</v>
       </c>
       <c r="H4" t="n">
-        <v>168.7832981868615</v>
+        <v>169.5531591706183</v>
       </c>
       <c r="I4" t="n">
-        <v>171.8136191935084</v>
+        <v>174.4176070608574</v>
       </c>
       <c r="J4" t="n">
-        <v>141.8677448475604</v>
+        <v>147.9896353083744</v>
       </c>
       <c r="K4" t="n">
-        <v>103.2194467320342</v>
+        <v>113.2795933295915</v>
       </c>
       <c r="L4" t="n">
-        <v>81.17768315713714</v>
+        <v>94.05120721476251</v>
       </c>
       <c r="M4" t="n">
-        <v>78.90436642388586</v>
+        <v>92.47769254138827</v>
       </c>
       <c r="N4" t="n">
-        <v>66.0568078880501</v>
+        <v>79.30739064835389</v>
       </c>
       <c r="O4" t="n">
-        <v>89.89367516071431</v>
+        <v>102.1327330088224</v>
       </c>
       <c r="P4" t="n">
-        <v>106.2502734281359</v>
+        <v>116.7229017797714</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.9939231415902</v>
+        <v>170.2446281736794</v>
       </c>
       <c r="R4" t="n">
-        <v>227.150859979262</v>
+        <v>231.0442469175655</v>
       </c>
       <c r="S4" t="n">
-        <v>246.0552733207275</v>
+        <v>247.5642953103611</v>
       </c>
       <c r="T4" t="n">
-        <v>218.6660521851541</v>
+        <v>219.0360262775525</v>
       </c>
       <c r="U4" t="n">
-        <v>291.226976759563</v>
+        <v>291.2316998330829</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22796,49 +22798,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.3471385867855</v>
+        <v>422.6759211308218</v>
       </c>
       <c r="H5" t="n">
-        <v>351.3657049311285</v>
+        <v>354.7328491602397</v>
       </c>
       <c r="I5" t="n">
-        <v>259.706194187933</v>
+        <v>272.3815832168904</v>
       </c>
       <c r="J5" t="n">
-        <v>115.309400717207</v>
+        <v>143.2144081641032</v>
       </c>
       <c r="K5" t="n">
-        <v>79.47878231656895</v>
+        <v>121.3011548525195</v>
       </c>
       <c r="L5" t="n">
-        <v>40.04864756429342</v>
+        <v>91.93299888229322</v>
       </c>
       <c r="M5" t="n">
-        <v>1.733351762019083</v>
+        <v>59.46468964752347</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>58.66549128874738</v>
       </c>
       <c r="O5" t="n">
-        <v>28.06508836972404</v>
+        <v>83.46124823621099</v>
       </c>
       <c r="P5" t="n">
-        <v>75.75370471464296</v>
+        <v>123.0330455252351</v>
       </c>
       <c r="Q5" t="n">
-        <v>135.6811959059556</v>
+        <v>171.1860118582497</v>
       </c>
       <c r="R5" t="n">
-        <v>220.1217681741228</v>
+        <v>240.7746546559397</v>
       </c>
       <c r="S5" t="n">
-        <v>239.0629964691877</v>
+        <v>246.5551286914136</v>
       </c>
       <c r="T5" t="n">
-        <v>220.0728025891063</v>
+        <v>221.512048175625</v>
       </c>
       <c r="U5" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8284615012647</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22875,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.1040878550346</v>
+        <v>161.2800020247046</v>
       </c>
       <c r="H6" t="n">
-        <v>138.6110820684246</v>
+        <v>140.310042601816</v>
       </c>
       <c r="I6" t="n">
-        <v>120.0192335563868</v>
+        <v>126.0759275559885</v>
       </c>
       <c r="J6" t="n">
-        <v>89.87823627360493</v>
+        <v>106.4982675405373</v>
       </c>
       <c r="K6" t="n">
-        <v>25.43178104141768</v>
+        <v>53.83806167623734</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22902,22 +22904,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>19.7226787259216</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.20279264048071</v>
+        <v>87.65808208817583</v>
       </c>
       <c r="R6" t="n">
-        <v>159.9255994603549</v>
+        <v>170.8477090474073</v>
       </c>
       <c r="S6" t="n">
-        <v>209.6778892475315</v>
+        <v>212.9454177938134</v>
       </c>
       <c r="T6" t="n">
-        <v>230.4545171253824</v>
+        <v>231.1635746776924</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6669910289033</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22954,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.3090980494251</v>
+        <v>169.4565785799364</v>
       </c>
       <c r="H7" t="n">
-        <v>168.2419231811629</v>
+        <v>169.5531591706183</v>
       </c>
       <c r="I7" t="n">
-        <v>169.9824652887527</v>
+        <v>174.4176070608574</v>
       </c>
       <c r="J7" t="n">
-        <v>137.5627618012226</v>
+        <v>147.9896353083744</v>
       </c>
       <c r="K7" t="n">
-        <v>96.14503714836491</v>
+        <v>113.2795933295915</v>
       </c>
       <c r="L7" t="n">
-        <v>72.12487452401287</v>
+        <v>94.05120721476253</v>
       </c>
       <c r="M7" t="n">
-        <v>69.35944901768788</v>
+        <v>92.47769254138827</v>
       </c>
       <c r="N7" t="n">
-        <v>56.73884728383211</v>
+        <v>79.30739064835389</v>
       </c>
       <c r="O7" t="n">
-        <v>81.2870303870922</v>
+        <v>102.1327330088224</v>
       </c>
       <c r="P7" t="n">
-        <v>98.88580198047258</v>
+        <v>116.7229017797714</v>
       </c>
       <c r="Q7" t="n">
-        <v>157.895144841498</v>
+        <v>170.2446281736794</v>
       </c>
       <c r="R7" t="n">
-        <v>224.4129859729374</v>
+        <v>231.0442469175655</v>
       </c>
       <c r="S7" t="n">
-        <v>244.9941118831771</v>
+        <v>247.5642953103611</v>
       </c>
       <c r="T7" t="n">
-        <v>218.4058821926404</v>
+        <v>219.0360262775525</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2316998330829</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23033,49 +23035,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.3471385867855</v>
+        <v>422.4828842901392</v>
       </c>
       <c r="H8" t="n">
-        <v>351.3657049311285</v>
+        <v>352.7559106155991</v>
       </c>
       <c r="I8" t="n">
-        <v>259.706194187933</v>
+        <v>264.9395304164745</v>
       </c>
       <c r="J8" t="n">
-        <v>115.309400717207</v>
+        <v>126.8306476072186</v>
       </c>
       <c r="K8" t="n">
-        <v>79.47878231656895</v>
+        <v>96.74614482954047</v>
       </c>
       <c r="L8" t="n">
-        <v>40.04864756429342</v>
+        <v>61.47033764627415</v>
       </c>
       <c r="M8" t="n">
-        <v>1.733351762019083</v>
+        <v>25.56910949601524</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>24.2214452136497</v>
       </c>
       <c r="O8" t="n">
-        <v>28.06508836972404</v>
+        <v>50.93671224565091</v>
       </c>
       <c r="P8" t="n">
-        <v>75.75370471464296</v>
+        <v>95.27410653902666</v>
       </c>
       <c r="Q8" t="n">
-        <v>135.6811959059556</v>
+        <v>150.3402047289868</v>
       </c>
       <c r="R8" t="n">
-        <v>220.1217681741228</v>
+        <v>228.6488042124114</v>
       </c>
       <c r="S8" t="n">
-        <v>239.0629964691877</v>
+        <v>242.1563016843589</v>
       </c>
       <c r="T8" t="n">
-        <v>220.0728025891063</v>
+        <v>220.6670294055369</v>
       </c>
       <c r="U8" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8130185540101</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23112,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.1040878550346</v>
+        <v>161.176718209428</v>
       </c>
       <c r="H9" t="n">
-        <v>138.6110820684246</v>
+        <v>139.3125383858557</v>
       </c>
       <c r="I9" t="n">
-        <v>120.0192335563868</v>
+        <v>122.5198839159847</v>
       </c>
       <c r="J9" t="n">
-        <v>89.87823627360493</v>
+        <v>96.74021199285306</v>
       </c>
       <c r="K9" t="n">
-        <v>25.43178104141768</v>
+        <v>37.15999050502471</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>65.20279264048071</v>
+        <v>74.4739936679631</v>
       </c>
       <c r="R9" t="n">
-        <v>159.9255994603549</v>
+        <v>164.4350525164654</v>
       </c>
       <c r="S9" t="n">
-        <v>209.6778892475315</v>
+        <v>211.0269662249707</v>
       </c>
       <c r="T9" t="n">
-        <v>230.4545171253824</v>
+        <v>230.7472684222575</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6601960410561</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23191,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.3090980494251</v>
+        <v>169.3699888987368</v>
       </c>
       <c r="H10" t="n">
-        <v>168.2419231811629</v>
+        <v>168.7832981868615</v>
       </c>
       <c r="I10" t="n">
-        <v>169.9824652887527</v>
+        <v>171.8136191935084</v>
       </c>
       <c r="J10" t="n">
-        <v>137.5627618012226</v>
+        <v>141.8677448475604</v>
       </c>
       <c r="K10" t="n">
-        <v>96.14503714836491</v>
+        <v>103.2194467320342</v>
       </c>
       <c r="L10" t="n">
-        <v>72.12487452401287</v>
+        <v>81.17768315713714</v>
       </c>
       <c r="M10" t="n">
-        <v>69.35944901768788</v>
+        <v>78.90436642388586</v>
       </c>
       <c r="N10" t="n">
-        <v>56.73884728383211</v>
+        <v>66.05680788805012</v>
       </c>
       <c r="O10" t="n">
-        <v>81.2870303870922</v>
+        <v>89.89367516071432</v>
       </c>
       <c r="P10" t="n">
-        <v>98.88580198047258</v>
+        <v>106.2502734281359</v>
       </c>
       <c r="Q10" t="n">
-        <v>157.895144841498</v>
+        <v>162.9939231415902</v>
       </c>
       <c r="R10" t="n">
-        <v>224.4129859729374</v>
+        <v>227.150859979262</v>
       </c>
       <c r="S10" t="n">
-        <v>244.9941118831771</v>
+        <v>246.0552733207275</v>
       </c>
       <c r="T10" t="n">
-        <v>218.4058821926404</v>
+        <v>218.6660521851541</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2236554405096</v>
+        <v>291.226976759563</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23270,22 +23272,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H11" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I11" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J11" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K11" t="n">
-        <v>78.22308851520961</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L11" t="n">
-        <v>38.49084836766588</v>
+        <v>13.76272976322227</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23294,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>26.40184904719004</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>74.33416843326191</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q11" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R11" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S11" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T11" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U11" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,19 +23351,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H12" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I12" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J12" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K12" t="n">
-        <v>24.57889804244016</v>
+        <v>11.04044456262879</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.52858488856606</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R12" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S12" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T12" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H13" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I13" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J13" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K13" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L13" t="n">
-        <v>71.46654840866277</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M13" t="n">
-        <v>68.66533643318368</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N13" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511905</v>
       </c>
       <c r="O13" t="n">
-        <v>80.66114959698193</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P13" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q13" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R13" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S13" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T13" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,22 +23509,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H14" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I14" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J14" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K14" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L14" t="n">
-        <v>38.49084836766588</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23531,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q14" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R14" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S14" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T14" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U14" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,19 +23588,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H15" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I15" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J15" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K15" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R15" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S15" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T15" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H16" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I16" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J16" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K16" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L16" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M16" t="n">
-        <v>68.6653364331837</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N16" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O16" t="n">
-        <v>80.66114959698194</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P16" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q16" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R16" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S16" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T16" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,22 +23746,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H17" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I17" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J17" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K17" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L17" t="n">
-        <v>38.49084836766588</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23768,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R17" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S17" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T17" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U17" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,19 +23825,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H18" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I18" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J18" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K18" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R18" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S18" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T18" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H19" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I19" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J19" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K19" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L19" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M19" t="n">
-        <v>68.6653364331837</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N19" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O19" t="n">
-        <v>80.66114959698194</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P19" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q19" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R19" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S19" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T19" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,22 +23983,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H20" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I20" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J20" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K20" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L20" t="n">
-        <v>38.49084836766588</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24005,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q20" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R20" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S20" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T20" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U20" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,19 +24062,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H21" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I21" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J21" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K21" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R21" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S21" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T21" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H22" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I22" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J22" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K22" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L22" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M22" t="n">
-        <v>68.6653364331837</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N22" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O22" t="n">
-        <v>80.66114959698194</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P22" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q22" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R22" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S22" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T22" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,22 +24220,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H23" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I23" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J23" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K23" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L23" t="n">
-        <v>38.49084836766588</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24242,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q23" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R23" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S23" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T23" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U23" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,19 +24299,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H24" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I24" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J24" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K24" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R24" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S24" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T24" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H25" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I25" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J25" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K25" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L25" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M25" t="n">
-        <v>68.6653364331837</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N25" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O25" t="n">
-        <v>80.66114959698194</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P25" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q25" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R25" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S25" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T25" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,22 +24457,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H26" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I26" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J26" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K26" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L26" t="n">
-        <v>38.49084836766588</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q26" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R26" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S26" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T26" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U26" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,19 +24536,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H27" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I27" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J27" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K27" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R27" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S27" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T27" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H28" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I28" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J28" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K28" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L28" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M28" t="n">
-        <v>68.6653364331837</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N28" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O28" t="n">
-        <v>80.66114959698194</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P28" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q28" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R28" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S28" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T28" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,22 +24694,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H29" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I29" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J29" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K29" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L29" t="n">
-        <v>38.49084836766588</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24716,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q29" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R29" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S29" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T29" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U29" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,19 +24773,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H30" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I30" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J30" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K30" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R30" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S30" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T30" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H31" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I31" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J31" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K31" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L31" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M31" t="n">
-        <v>68.6653364331837</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N31" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O31" t="n">
-        <v>80.66114959698194</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P31" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q31" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R31" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S31" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T31" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,22 +24931,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H32" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I32" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J32" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K32" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L32" t="n">
-        <v>38.49084836766588</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24953,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q32" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R32" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S32" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T32" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U32" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,19 +25010,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H33" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I33" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J33" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K33" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R33" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S33" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T33" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H34" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I34" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J34" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K34" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L34" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M34" t="n">
-        <v>68.6653364331837</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N34" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O34" t="n">
-        <v>80.66114959698194</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P34" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q34" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R34" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S34" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T34" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,22 +25168,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H35" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I35" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J35" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K35" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L35" t="n">
-        <v>38.49084836766588</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25190,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q35" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R35" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S35" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T35" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U35" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,19 +25247,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H36" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I36" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J36" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K36" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R36" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S36" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T36" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H37" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I37" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J37" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K37" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L37" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M37" t="n">
-        <v>68.6653364331837</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N37" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O37" t="n">
-        <v>80.66114959698194</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P37" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q37" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R37" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S37" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T37" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,22 +25405,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H38" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I38" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J38" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K38" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L38" t="n">
-        <v>38.49084836766588</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25427,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q38" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R38" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S38" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T38" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U38" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,19 +25484,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H39" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I39" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J39" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K39" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R39" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S39" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T39" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H40" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I40" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J40" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K40" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L40" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M40" t="n">
-        <v>68.6653364331837</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N40" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O40" t="n">
-        <v>80.66114959698194</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P40" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q40" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R40" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S40" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T40" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,22 +25642,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H41" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I41" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J41" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K41" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L41" t="n">
-        <v>38.49084836766588</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25664,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q41" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R41" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S41" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T41" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U41" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,19 +25721,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H42" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I42" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J42" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K42" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R42" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S42" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T42" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H43" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I43" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J43" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K43" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L43" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M43" t="n">
-        <v>68.6653364331837</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N43" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O43" t="n">
-        <v>80.66114959698194</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P43" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q43" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R43" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S43" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T43" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25862,37 +25864,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.5563275970632</v>
+        <v>343.0259400095101</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1317556432476</v>
+        <v>297.6013680556946</v>
       </c>
       <c r="E44" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>399.146417573369</v>
+        <v>377.616029985816</v>
       </c>
       <c r="G44" t="n">
-        <v>422.3372670711946</v>
+        <v>422.0527837651297</v>
       </c>
       <c r="H44" t="n">
-        <v>351.2646082720821</v>
+        <v>348.351143613845</v>
       </c>
       <c r="I44" t="n">
-        <v>259.3256225831108</v>
+        <v>248.3580799260436</v>
       </c>
       <c r="J44" t="n">
-        <v>114.4715681708149</v>
+        <v>90.32640317268871</v>
       </c>
       <c r="K44" t="n">
-        <v>78.22308851520964</v>
+        <v>37.04577310014945</v>
       </c>
       <c r="L44" t="n">
-        <v>38.49084836766588</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25901,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>74.33416843326194</v>
+        <v>33.42511341699608</v>
       </c>
       <c r="Q44" t="n">
-        <v>134.6151832766775</v>
+        <v>103.894186658861</v>
       </c>
       <c r="R44" t="n">
-        <v>219.5016765828794</v>
+        <v>201.6315021082798</v>
       </c>
       <c r="S44" t="n">
-        <v>238.8380493076577</v>
+        <v>232.3553859707037</v>
       </c>
       <c r="T44" t="n">
-        <v>220.0295900296067</v>
+        <v>218.7842643573076</v>
       </c>
       <c r="U44" t="n">
-        <v>248.8013691764946</v>
+        <v>248.7786105120094</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,19 +25958,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>161.0988061285559</v>
+        <v>139.4162065532342</v>
       </c>
       <c r="H45" t="n">
-        <v>138.5600717100643</v>
+        <v>118.126058967393</v>
       </c>
       <c r="I45" t="n">
-        <v>119.8373846403433</v>
+        <v>114.5967526053281</v>
       </c>
       <c r="J45" t="n">
-        <v>89.37922894870135</v>
+        <v>74.99853408675705</v>
       </c>
       <c r="K45" t="n">
-        <v>24.57889804244017</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>64.52858488856607</v>
+        <v>45.09885816919245</v>
       </c>
       <c r="R45" t="n">
-        <v>159.5976691093343</v>
+        <v>150.1471739389298</v>
       </c>
       <c r="S45" t="n">
-        <v>209.5797834947361</v>
+        <v>206.7525125815782</v>
       </c>
       <c r="T45" t="n">
-        <v>230.4332280611984</v>
+        <v>208.2893193475079</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6550702462619</v>
+        <v>228.1146687121451</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.30467002737</v>
+        <v>169.1770606099569</v>
       </c>
       <c r="H46" t="n">
-        <v>168.2025540396188</v>
+        <v>167.0679903102548</v>
       </c>
       <c r="I46" t="n">
-        <v>169.8493025891331</v>
+        <v>166.0117393818365</v>
       </c>
       <c r="J46" t="n">
-        <v>137.2497006419296</v>
+        <v>128.2277148308213</v>
       </c>
       <c r="K46" t="n">
-        <v>95.63058149505842</v>
+        <v>80.80468736287838</v>
       </c>
       <c r="L46" t="n">
-        <v>71.46654840866279</v>
+        <v>52.49450829616885</v>
       </c>
       <c r="M46" t="n">
-        <v>68.6653364331837</v>
+        <v>48.6619802108691</v>
       </c>
       <c r="N46" t="n">
-        <v>56.06123914516952</v>
+        <v>36.53351802412205</v>
       </c>
       <c r="O46" t="n">
-        <v>80.66114959698194</v>
+        <v>62.6241384884424</v>
       </c>
       <c r="P46" t="n">
-        <v>98.35025284028562</v>
+        <v>82.91647384697394</v>
       </c>
       <c r="Q46" t="n">
-        <v>157.5243583765053</v>
+        <v>146.8388097965749</v>
       </c>
       <c r="R46" t="n">
-        <v>224.2138859994434</v>
+        <v>218.4761025583039</v>
       </c>
       <c r="S46" t="n">
-        <v>244.9169435351811</v>
+        <v>242.6930594153541</v>
       </c>
       <c r="T46" t="n">
-        <v>218.3869624620415</v>
+        <v>217.8417222240036</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2234139120339</v>
+        <v>291.2164533983568</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>368892.5486646552</v>
+        <v>332608.039346867</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>393540.8480495035</v>
+        <v>332608.039346867</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>393540.8480495035</v>
+        <v>368892.5486646552</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>395126.4824866377</v>
+        <v>417070.2586241105</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>395126.4824866377</v>
+        <v>417070.2586241105</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>395126.4824866377</v>
+        <v>417070.2586241105</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>395126.4824866377</v>
+        <v>417070.2586241105</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>395126.4824866377</v>
+        <v>417070.2586241105</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>395126.4824866377</v>
+        <v>417070.2586241105</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>395126.4824866377</v>
+        <v>417070.2586241105</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>395126.4824866377</v>
+        <v>417070.2586241105</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>395126.4824866377</v>
+        <v>417070.2586241105</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>395126.4824866377</v>
+        <v>417070.2586241105</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>395126.4824866377</v>
+        <v>417070.2586241105</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>395126.4824866377</v>
+        <v>445077.6844753334</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>68355.65836341566</v>
+      </c>
+      <c r="C2" t="n">
+        <v>68355.65836341566</v>
+      </c>
+      <c r="D2" t="n">
         <v>75884.73621636594</v>
       </c>
-      <c r="C2" t="n">
-        <v>81002.85307378336</v>
-      </c>
-      <c r="D2" t="n">
-        <v>81002.85307378335</v>
-      </c>
       <c r="E2" t="n">
-        <v>81332.98363817556</v>
+        <v>85916.34110757665</v>
       </c>
       <c r="F2" t="n">
-        <v>81332.98363817557</v>
+        <v>85916.34110757666</v>
       </c>
       <c r="G2" t="n">
-        <v>81332.98363817557</v>
+        <v>85916.34110757668</v>
       </c>
       <c r="H2" t="n">
-        <v>81332.98363817557</v>
+        <v>85916.34110757666</v>
       </c>
       <c r="I2" t="n">
-        <v>81332.98363817556</v>
+        <v>85916.34110757668</v>
       </c>
       <c r="J2" t="n">
-        <v>81332.98363817554</v>
+        <v>85916.34110757668</v>
       </c>
       <c r="K2" t="n">
-        <v>81332.98363817557</v>
+        <v>85916.34110757668</v>
       </c>
       <c r="L2" t="n">
-        <v>81332.98363817556</v>
+        <v>85916.34110757666</v>
       </c>
       <c r="M2" t="n">
-        <v>81332.98363817557</v>
+        <v>85916.34110757668</v>
       </c>
       <c r="N2" t="n">
-        <v>81332.98363817556</v>
+        <v>85916.34110757666</v>
       </c>
       <c r="O2" t="n">
-        <v>81332.98363817553</v>
+        <v>85916.34110757666</v>
       </c>
       <c r="P2" t="n">
-        <v>81332.98363817554</v>
+        <v>91711.3888995468</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>265427.3448384088</v>
+        <v>219156.6585596895</v>
       </c>
       <c r="C3" t="n">
-        <v>30748.06435510295</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>41123.21390299121</v>
       </c>
       <c r="E3" t="n">
-        <v>1972.787803539614</v>
+        <v>60416.63596404985</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>26245.61959309425</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>2222.357257024706</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2222.357257024706</v>
+      </c>
+      <c r="D4" t="n">
         <v>2116.323618886231</v>
       </c>
-      <c r="C4" t="n">
-        <v>2027.058192883974</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2027.058192883974</v>
-      </c>
       <c r="E4" t="n">
-        <v>2017.061568789217</v>
+        <v>1807.943270823199</v>
       </c>
       <c r="F4" t="n">
-        <v>2017.061568789217</v>
+        <v>1807.943270823199</v>
       </c>
       <c r="G4" t="n">
-        <v>2017.061568789217</v>
+        <v>1807.9432708232</v>
       </c>
       <c r="H4" t="n">
-        <v>2017.061568789217</v>
+        <v>1807.9432708232</v>
       </c>
       <c r="I4" t="n">
-        <v>2017.061568789217</v>
+        <v>1807.9432708232</v>
       </c>
       <c r="J4" t="n">
-        <v>2017.061568789217</v>
+        <v>1807.9432708232</v>
       </c>
       <c r="K4" t="n">
-        <v>2017.061568789217</v>
+        <v>1807.9432708232</v>
       </c>
       <c r="L4" t="n">
-        <v>2017.061568789217</v>
+        <v>1807.9432708232</v>
       </c>
       <c r="M4" t="n">
-        <v>2017.061568789217</v>
+        <v>1807.9432708232</v>
       </c>
       <c r="N4" t="n">
-        <v>2017.061568789217</v>
+        <v>1807.9432708232</v>
       </c>
       <c r="O4" t="n">
-        <v>2017.061568789217</v>
+        <v>1807.9432708232</v>
       </c>
       <c r="P4" t="n">
-        <v>2017.061568789217</v>
+        <v>1819.870138185623</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>38585.62272966557</v>
+      </c>
+      <c r="C5" t="n">
+        <v>38585.62272966557</v>
+      </c>
+      <c r="D5" t="n">
         <v>39632.41325747713</v>
       </c>
-      <c r="C5" t="n">
-        <v>40368.52827033812</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40368.52827033812</v>
-      </c>
       <c r="E5" t="n">
-        <v>6794.459031509247</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="F5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="G5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="H5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="I5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="J5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="K5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="L5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="M5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="N5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="O5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="P5" t="n">
-        <v>6794.459031509246</v>
+        <v>9646.188444795933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231291.3454984062</v>
+        <v>-191608.9801829642</v>
       </c>
       <c r="C6" t="n">
-        <v>7859.202255458316</v>
+        <v>27547.67837672538</v>
       </c>
       <c r="D6" t="n">
-        <v>38607.26661056126</v>
+        <v>-6987.214562988622</v>
       </c>
       <c r="E6" t="n">
-        <v>70548.67523433748</v>
+        <v>16047.56879710744</v>
       </c>
       <c r="F6" t="n">
-        <v>72521.46303787711</v>
+        <v>76464.20476115729</v>
       </c>
       <c r="G6" t="n">
-        <v>72521.46303787711</v>
+        <v>76464.20476115731</v>
       </c>
       <c r="H6" t="n">
-        <v>72521.46303787711</v>
+        <v>76464.20476115729</v>
       </c>
       <c r="I6" t="n">
-        <v>72521.4630378771</v>
+        <v>76464.20476115731</v>
       </c>
       <c r="J6" t="n">
-        <v>72521.46303787708</v>
+        <v>76464.20476115731</v>
       </c>
       <c r="K6" t="n">
-        <v>72521.46303787711</v>
+        <v>76464.20476115731</v>
       </c>
       <c r="L6" t="n">
-        <v>72521.4630378771</v>
+        <v>76464.20476115729</v>
       </c>
       <c r="M6" t="n">
-        <v>72521.46303787711</v>
+        <v>76464.20476115731</v>
       </c>
       <c r="N6" t="n">
-        <v>72521.4630378771</v>
+        <v>76464.20476115729</v>
       </c>
       <c r="O6" t="n">
-        <v>72521.46303787707</v>
+        <v>76464.20476115729</v>
       </c>
       <c r="P6" t="n">
-        <v>72521.46303787708</v>
+        <v>53999.710723471</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>227.4322353057602</v>
+      </c>
+      <c r="C3" t="n">
+        <v>227.4322353057602</v>
+      </c>
+      <c r="D3" t="n">
         <v>275.4501494255565</v>
       </c>
-      <c r="C3" t="n">
-        <v>309.2168931347763</v>
-      </c>
-      <c r="D3" t="n">
-        <v>309.2168931347763</v>
-      </c>
       <c r="E3" t="n">
-        <v>311.6724326380389</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="F3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="G3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="H3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="I3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="J3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="K3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="L3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="M3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="N3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="O3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="P3" t="n">
-        <v>311.6724326380388</v>
+        <v>382.4376550216838</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>275.4501494255565</v>
+        <v>227.4322353057602</v>
       </c>
       <c r="C3" t="n">
-        <v>33.76674370921978</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>48.01791411979627</v>
       </c>
       <c r="E3" t="n">
-        <v>2.455539503262514</v>
+        <v>75.20090908802911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>31.78659650809823</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.107337284122839</v>
+        <v>0.9143004434402414</v>
       </c>
       <c r="H2" t="n">
-        <v>11.34051796102303</v>
+        <v>9.363579416382375</v>
       </c>
       <c r="I2" t="n">
-        <v>42.69062064614581</v>
+        <v>35.24856784572994</v>
       </c>
       <c r="J2" t="n">
-        <v>93.98386781832093</v>
+        <v>77.60010726143626</v>
       </c>
       <c r="K2" t="n">
-        <v>140.8574550552407</v>
+        <v>116.3024450322617</v>
       </c>
       <c r="L2" t="n">
-        <v>174.7461284642151</v>
+        <v>144.283467228196</v>
       </c>
       <c r="M2" t="n">
-        <v>194.4387378907347</v>
+        <v>160.5431577392264</v>
       </c>
       <c r="N2" t="n">
-        <v>197.5849599492487</v>
+        <v>163.140913874151</v>
       </c>
       <c r="O2" t="n">
-        <v>186.5738748302522</v>
+        <v>154.0493388396921</v>
       </c>
       <c r="P2" t="n">
-        <v>159.2364856284696</v>
+        <v>131.4775466422611</v>
       </c>
       <c r="Q2" t="n">
-        <v>119.5799691408204</v>
+        <v>98.73416201155744</v>
       </c>
       <c r="R2" t="n">
-        <v>69.55877567378137</v>
+        <v>57.43292523025312</v>
       </c>
       <c r="S2" t="n">
-        <v>25.23344836194923</v>
+        <v>20.83462135489452</v>
       </c>
       <c r="T2" t="n">
-        <v>4.847368961247732</v>
+        <v>4.002350191159659</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.0731440354752193</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.59247767989648</v>
+        <v>0.4891938646199371</v>
       </c>
       <c r="H3" t="n">
-        <v>5.722087066368637</v>
+        <v>4.724582850408341</v>
       </c>
       <c r="I3" t="n">
-        <v>20.3989025753832</v>
+        <v>16.84285893537941</v>
       </c>
       <c r="J3" t="n">
-        <v>55.9761478186407</v>
+        <v>46.21809227095643</v>
       </c>
       <c r="K3" t="n">
-        <v>95.67215237170485</v>
+        <v>78.99408120049222</v>
       </c>
       <c r="L3" t="n">
-        <v>128.6430155406809</v>
+        <v>106.2172906491666</v>
       </c>
       <c r="M3" t="n">
-        <v>150.1203314369283</v>
+        <v>123.9505682416393</v>
       </c>
       <c r="N3" t="n">
-        <v>154.0935699130762</v>
+        <v>127.2311709565686</v>
       </c>
       <c r="O3" t="n">
-        <v>140.9655118480015</v>
+        <v>116.3916647984111</v>
       </c>
       <c r="P3" t="n">
-        <v>113.1372509970743</v>
+        <v>93.41457227115274</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.62925612152262</v>
+        <v>62.44516770130987</v>
       </c>
       <c r="R3" t="n">
-        <v>36.78558787988849</v>
+        <v>30.37293134894663</v>
       </c>
       <c r="S3" t="n">
-        <v>11.00501304544558</v>
+        <v>9.086561476602773</v>
       </c>
       <c r="T3" t="n">
-        <v>2.388100823793267</v>
+        <v>1.97179456835843</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.03218380688289061</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.4101237030103873</v>
       </c>
       <c r="H4" t="n">
-        <v>4.416233543249089</v>
+        <v>3.646372559492355</v>
       </c>
       <c r="I4" t="n">
-        <v>14.93752613606133</v>
+        <v>12.33353826871238</v>
       </c>
       <c r="J4" t="n">
-        <v>35.1176362636484</v>
+        <v>28.99574580283438</v>
       </c>
       <c r="K4" t="n">
-        <v>57.70906409276412</v>
+        <v>47.6489174952068</v>
       </c>
       <c r="L4" t="n">
-        <v>73.8477335033697</v>
+        <v>60.97420944574431</v>
       </c>
       <c r="M4" t="n">
-        <v>77.86208076303065</v>
+        <v>64.28875464552824</v>
       </c>
       <c r="N4" t="n">
-        <v>76.01069451279336</v>
+        <v>62.76011175248958</v>
       </c>
       <c r="O4" t="n">
-        <v>70.2081790699763</v>
+        <v>57.96912122186821</v>
       </c>
       <c r="P4" t="n">
-        <v>60.07522603209183</v>
+        <v>49.60259768045627</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.59297256325903</v>
+        <v>34.3422675311698</v>
       </c>
       <c r="R4" t="n">
-        <v>22.33403998457052</v>
+        <v>18.44065304626704</v>
       </c>
       <c r="S4" t="n">
-        <v>8.656359613914615</v>
+        <v>7.147337624281019</v>
       </c>
       <c r="T4" t="n">
-        <v>2.122320823442811</v>
+        <v>1.752346731044381</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.0223703838005666</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.243082987476487</v>
+        <v>0.9143004434402414</v>
       </c>
       <c r="H5" t="n">
-        <v>12.73072364549357</v>
+        <v>9.363579416382375</v>
       </c>
       <c r="I5" t="n">
-        <v>47.9239568746873</v>
+        <v>35.24856784572994</v>
       </c>
       <c r="J5" t="n">
-        <v>105.5051147083326</v>
+        <v>77.60010726143626</v>
       </c>
       <c r="K5" t="n">
-        <v>158.1248175682123</v>
+        <v>116.3024450322617</v>
       </c>
       <c r="L5" t="n">
-        <v>196.1678185461958</v>
+        <v>144.283467228196</v>
       </c>
       <c r="M5" t="n">
-        <v>218.2744956247308</v>
+        <v>160.5431577392264</v>
       </c>
       <c r="N5" t="n">
-        <v>221.8064051628984</v>
+        <v>163.140913874151</v>
       </c>
       <c r="O5" t="n">
-        <v>209.4454987061791</v>
+        <v>154.0493388396921</v>
       </c>
       <c r="P5" t="n">
-        <v>178.7568874528532</v>
+        <v>131.4775466422611</v>
       </c>
       <c r="Q5" t="n">
-        <v>134.2389779638515</v>
+        <v>98.73416201155744</v>
       </c>
       <c r="R5" t="n">
-        <v>78.08581171206993</v>
+        <v>57.43292523025311</v>
       </c>
       <c r="S5" t="n">
-        <v>28.32675357712047</v>
+        <v>20.83462135489452</v>
       </c>
       <c r="T5" t="n">
-        <v>5.441595777678323</v>
+        <v>4.002350191159659</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.0731440354752193</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.4891938646199371</v>
       </c>
       <c r="H6" t="n">
-        <v>6.423543383799788</v>
+        <v>4.724582850408341</v>
       </c>
       <c r="I6" t="n">
-        <v>22.89955293498108</v>
+        <v>16.84285893537941</v>
       </c>
       <c r="J6" t="n">
-        <v>62.83812353788884</v>
+        <v>46.21809227095643</v>
       </c>
       <c r="K6" t="n">
-        <v>107.4003618353119</v>
+        <v>78.99408120049222</v>
       </c>
       <c r="L6" t="n">
-        <v>144.4130405154444</v>
+        <v>106.2172906491666</v>
       </c>
       <c r="M6" t="n">
-        <v>168.5232067584531</v>
+        <v>123.9505682416393</v>
       </c>
       <c r="N6" t="n">
-        <v>172.9835145848972</v>
+        <v>127.2311709565686</v>
       </c>
       <c r="O6" t="n">
-        <v>158.2461207724737</v>
+        <v>116.3916647984111</v>
       </c>
       <c r="P6" t="n">
-        <v>127.0064631443575</v>
+        <v>93.41457227115274</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.90045714900501</v>
+        <v>62.44516770130988</v>
       </c>
       <c r="R6" t="n">
-        <v>41.29504093599901</v>
+        <v>30.37293134894663</v>
       </c>
       <c r="S6" t="n">
-        <v>12.35409002288469</v>
+        <v>9.086561476602773</v>
       </c>
       <c r="T6" t="n">
-        <v>2.680852120668484</v>
+        <v>1.97179456835843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.03218380688289061</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.4101237030103873</v>
       </c>
       <c r="H7" t="n">
-        <v>4.957608548947728</v>
+        <v>3.646372559492355</v>
       </c>
       <c r="I7" t="n">
-        <v>16.76868004081705</v>
+        <v>12.33353826871238</v>
       </c>
       <c r="J7" t="n">
-        <v>39.42261930998615</v>
+        <v>28.99574580283438</v>
       </c>
       <c r="K7" t="n">
-        <v>64.78347367643343</v>
+        <v>47.6489174952068</v>
       </c>
       <c r="L7" t="n">
-        <v>82.90054213649397</v>
+        <v>60.97420944574431</v>
       </c>
       <c r="M7" t="n">
-        <v>87.40699816922863</v>
+        <v>64.28875464552824</v>
       </c>
       <c r="N7" t="n">
-        <v>85.32865511701135</v>
+        <v>62.76011175248958</v>
       </c>
       <c r="O7" t="n">
-        <v>78.8148238435984</v>
+        <v>57.96912122186821</v>
       </c>
       <c r="P7" t="n">
-        <v>67.43969747975511</v>
+        <v>49.60259768045627</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.69175086335122</v>
+        <v>34.3422675311698</v>
       </c>
       <c r="R7" t="n">
-        <v>25.07191399089513</v>
+        <v>18.44065304626704</v>
       </c>
       <c r="S7" t="n">
-        <v>9.717521051465015</v>
+        <v>7.147337624281018</v>
       </c>
       <c r="T7" t="n">
-        <v>2.382490815956472</v>
+        <v>1.752346731044381</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.0223703838005666</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.243082987476487</v>
+        <v>1.107337284122839</v>
       </c>
       <c r="H8" t="n">
-        <v>12.73072364549357</v>
+        <v>11.34051796102303</v>
       </c>
       <c r="I8" t="n">
-        <v>47.9239568746873</v>
+        <v>42.6906206461458</v>
       </c>
       <c r="J8" t="n">
-        <v>105.5051147083326</v>
+        <v>93.98386781832092</v>
       </c>
       <c r="K8" t="n">
-        <v>158.1248175682123</v>
+        <v>140.8574550552407</v>
       </c>
       <c r="L8" t="n">
-        <v>196.1678185461958</v>
+        <v>174.7461284642151</v>
       </c>
       <c r="M8" t="n">
-        <v>218.2744956247308</v>
+        <v>194.4387378907346</v>
       </c>
       <c r="N8" t="n">
-        <v>221.8064051628984</v>
+        <v>197.5849599492487</v>
       </c>
       <c r="O8" t="n">
-        <v>209.4454987061791</v>
+        <v>186.5738748302522</v>
       </c>
       <c r="P8" t="n">
-        <v>178.7568874528532</v>
+        <v>159.2364856284696</v>
       </c>
       <c r="Q8" t="n">
-        <v>134.2389779638515</v>
+        <v>119.5799691408203</v>
       </c>
       <c r="R8" t="n">
-        <v>78.08581171206993</v>
+        <v>69.55877567378137</v>
       </c>
       <c r="S8" t="n">
-        <v>28.32675357712047</v>
+        <v>25.23344836194923</v>
       </c>
       <c r="T8" t="n">
-        <v>5.441595777678323</v>
+        <v>4.847368961247732</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.08858698272982712</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.5924776798964799</v>
       </c>
       <c r="H9" t="n">
-        <v>6.423543383799788</v>
+        <v>5.722087066368637</v>
       </c>
       <c r="I9" t="n">
-        <v>22.89955293498108</v>
+        <v>20.39890257538319</v>
       </c>
       <c r="J9" t="n">
-        <v>62.83812353788884</v>
+        <v>55.97614781864069</v>
       </c>
       <c r="K9" t="n">
-        <v>107.4003618353119</v>
+        <v>95.67215237170485</v>
       </c>
       <c r="L9" t="n">
-        <v>144.4130405154444</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M9" t="n">
-        <v>168.5232067584531</v>
+        <v>150.1203314369282</v>
       </c>
       <c r="N9" t="n">
-        <v>172.9835145848972</v>
+        <v>154.0935699130762</v>
       </c>
       <c r="O9" t="n">
-        <v>158.2461207724737</v>
+        <v>140.9655118480015</v>
       </c>
       <c r="P9" t="n">
-        <v>127.0064631443575</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q9" t="n">
-        <v>84.90045714900501</v>
+        <v>75.62925612152262</v>
       </c>
       <c r="R9" t="n">
-        <v>41.29504093599901</v>
+        <v>36.78558787988848</v>
       </c>
       <c r="S9" t="n">
-        <v>12.35409002288469</v>
+        <v>11.00501304544558</v>
       </c>
       <c r="T9" t="n">
-        <v>2.680852120668484</v>
+        <v>2.388100823793267</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.03897879473003159</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.4967133842100198</v>
       </c>
       <c r="H10" t="n">
-        <v>4.957608548947728</v>
+        <v>4.416233543249088</v>
       </c>
       <c r="I10" t="n">
-        <v>16.76868004081705</v>
+        <v>14.93752613606133</v>
       </c>
       <c r="J10" t="n">
-        <v>39.42261930998615</v>
+        <v>35.1176362636484</v>
       </c>
       <c r="K10" t="n">
-        <v>64.78347367643343</v>
+        <v>57.70906409276411</v>
       </c>
       <c r="L10" t="n">
-        <v>82.90054213649397</v>
+        <v>73.8477335033697</v>
       </c>
       <c r="M10" t="n">
-        <v>87.40699816922863</v>
+        <v>77.86208076303065</v>
       </c>
       <c r="N10" t="n">
-        <v>85.32865511701135</v>
+        <v>76.01069451279335</v>
       </c>
       <c r="O10" t="n">
-        <v>78.8148238435984</v>
+        <v>70.20817906997628</v>
       </c>
       <c r="P10" t="n">
-        <v>67.43969747975511</v>
+        <v>60.07522603209183</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.69175086335122</v>
+        <v>41.59297256325902</v>
       </c>
       <c r="R10" t="n">
-        <v>25.07191399089513</v>
+        <v>22.33403998457052</v>
       </c>
       <c r="S10" t="n">
-        <v>9.717521051465015</v>
+        <v>8.656359613914615</v>
       </c>
       <c r="T10" t="n">
-        <v>2.382490815956472</v>
+        <v>2.122320823442811</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.02709345732054657</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H11" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I11" t="n">
-        <v>48.30452847950953</v>
+        <v>54.34562787274376</v>
       </c>
       <c r="J11" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K11" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L11" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M11" t="n">
-        <v>220.0078473867499</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N11" t="n">
-        <v>223.5678043685904</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O11" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P11" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q11" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R11" t="n">
-        <v>78.70590330331341</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S11" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T11" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H12" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I12" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J12" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K12" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L12" t="n">
-        <v>145.559846959869</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M12" t="n">
-        <v>169.8614757877311</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N12" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O12" t="n">
-        <v>159.5027778614688</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P12" t="n">
-        <v>128.015041247122</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.57466490091966</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R12" t="n">
-        <v>41.62297128701962</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S12" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T12" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H13" t="n">
-        <v>4.996977690491839</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I13" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J13" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K13" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L13" t="n">
-        <v>83.55886825184406</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M13" t="n">
-        <v>88.10111075373283</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N13" t="n">
-        <v>86.00626325567394</v>
+        <v>96.76244701572442</v>
       </c>
       <c r="O13" t="n">
-        <v>79.44070463370868</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R13" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S13" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T13" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H14" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I14" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J14" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K14" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L14" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M14" t="n">
-        <v>220.0078473867499</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N14" t="n">
-        <v>223.5678043685904</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O14" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P14" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R14" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S14" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T14" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H15" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I15" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J15" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K15" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L15" t="n">
-        <v>145.559846959869</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M15" t="n">
-        <v>169.8614757877311</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N15" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O15" t="n">
-        <v>159.5027778614688</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P15" t="n">
-        <v>128.015041247122</v>
+        <v>144.0249602411745</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R15" t="n">
-        <v>41.62297128701962</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S15" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T15" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H16" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I16" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J16" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K16" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L16" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M16" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N16" t="n">
-        <v>86.00626325567394</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O16" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R16" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S16" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T16" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H17" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I17" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J17" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K17" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L17" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M17" t="n">
-        <v>220.0078473867499</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N17" t="n">
-        <v>223.5678043685904</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O17" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P17" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R17" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T17" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H18" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I18" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J18" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K18" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L18" t="n">
-        <v>145.559846959869</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M18" t="n">
-        <v>169.8614757877311</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N18" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O18" t="n">
-        <v>159.5027778614688</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P18" t="n">
-        <v>128.015041247122</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R18" t="n">
-        <v>41.62297128701962</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S18" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T18" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H19" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I19" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J19" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K19" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L19" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M19" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N19" t="n">
-        <v>86.00626325567394</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O19" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R19" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S19" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T19" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H20" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I20" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J20" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K20" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L20" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M20" t="n">
-        <v>220.0078473867499</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N20" t="n">
-        <v>223.5678043685904</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O20" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P20" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R20" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S20" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T20" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H21" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I21" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J21" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K21" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L21" t="n">
-        <v>145.559846959869</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M21" t="n">
-        <v>169.8614757877311</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N21" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O21" t="n">
-        <v>159.5027778614688</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P21" t="n">
-        <v>128.015041247122</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R21" t="n">
-        <v>41.62297128701962</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S21" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T21" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H22" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I22" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J22" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K22" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L22" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M22" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N22" t="n">
-        <v>86.00626325567394</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O22" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R22" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S22" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T22" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H23" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I23" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J23" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K23" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L23" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M23" t="n">
-        <v>220.0078473867499</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N23" t="n">
-        <v>223.5678043685904</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O23" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P23" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R23" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S23" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T23" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H24" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I24" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J24" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K24" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L24" t="n">
-        <v>145.559846959869</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M24" t="n">
-        <v>169.8614757877311</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N24" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O24" t="n">
-        <v>159.5027778614688</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P24" t="n">
-        <v>128.015041247122</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R24" t="n">
-        <v>41.62297128701962</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S24" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T24" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H25" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I25" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J25" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K25" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L25" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M25" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N25" t="n">
-        <v>86.00626325567394</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O25" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R25" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S25" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T25" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H26" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I26" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J26" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K26" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L26" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M26" t="n">
-        <v>220.0078473867499</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N26" t="n">
-        <v>223.5678043685904</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O26" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P26" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R26" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S26" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T26" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H27" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I27" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J27" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K27" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L27" t="n">
-        <v>145.559846959869</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M27" t="n">
-        <v>169.8614757877311</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N27" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O27" t="n">
-        <v>159.5027778614688</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P27" t="n">
-        <v>128.015041247122</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q27" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R27" t="n">
-        <v>41.62297128701962</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S27" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T27" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H28" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I28" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J28" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K28" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L28" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M28" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N28" t="n">
-        <v>86.00626325567394</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O28" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R28" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S28" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T28" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H29" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I29" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J29" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K29" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L29" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M29" t="n">
-        <v>220.0078473867499</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N29" t="n">
-        <v>223.5678043685904</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O29" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P29" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R29" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S29" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T29" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H30" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I30" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J30" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K30" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L30" t="n">
-        <v>145.559846959869</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M30" t="n">
-        <v>169.8614757877311</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N30" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O30" t="n">
-        <v>159.5027778614688</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P30" t="n">
-        <v>128.015041247122</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q30" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R30" t="n">
-        <v>41.62297128701962</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S30" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T30" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H31" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I31" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J31" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K31" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L31" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M31" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N31" t="n">
-        <v>86.00626325567394</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O31" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R31" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S31" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T31" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H32" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I32" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K32" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L32" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M32" t="n">
-        <v>220.0078473867499</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N32" t="n">
-        <v>223.5678043685904</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O32" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P32" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q32" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R32" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S32" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T32" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H33" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I33" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J33" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K33" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L33" t="n">
-        <v>145.559846959869</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M33" t="n">
-        <v>169.8614757877311</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N33" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O33" t="n">
-        <v>159.5027778614688</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P33" t="n">
-        <v>128.015041247122</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R33" t="n">
-        <v>41.62297128701962</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S33" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T33" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H34" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I34" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J34" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K34" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L34" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M34" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N34" t="n">
-        <v>86.00626325567394</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O34" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R34" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S34" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T34" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H35" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I35" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J35" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K35" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L35" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M35" t="n">
-        <v>220.0078473867499</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N35" t="n">
-        <v>223.5678043685904</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O35" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P35" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R35" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S35" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T35" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H36" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I36" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J36" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K36" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L36" t="n">
-        <v>145.559846959869</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M36" t="n">
-        <v>169.8614757877311</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N36" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O36" t="n">
-        <v>159.5027778614688</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P36" t="n">
-        <v>128.015041247122</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R36" t="n">
-        <v>41.62297128701962</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S36" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T36" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H37" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I37" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J37" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K37" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L37" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M37" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N37" t="n">
-        <v>86.00626325567394</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O37" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R37" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S37" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T37" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H38" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I38" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J38" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K38" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L38" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M38" t="n">
-        <v>220.0078473867499</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N38" t="n">
-        <v>223.5678043685904</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O38" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P38" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R38" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S38" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T38" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H39" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I39" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J39" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K39" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L39" t="n">
-        <v>145.559846959869</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M39" t="n">
-        <v>169.8614757877311</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N39" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O39" t="n">
-        <v>159.5027778614688</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P39" t="n">
-        <v>128.015041247122</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q39" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R39" t="n">
-        <v>41.62297128701962</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S39" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T39" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H40" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I40" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J40" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K40" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L40" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M40" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N40" t="n">
-        <v>86.00626325567394</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O40" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R40" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S40" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T40" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H41" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I41" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J41" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K41" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L41" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M41" t="n">
-        <v>220.0078473867499</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N41" t="n">
-        <v>223.5678043685904</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O41" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P41" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R41" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S41" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T41" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H42" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I42" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J42" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K42" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L42" t="n">
-        <v>145.559846959869</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M42" t="n">
-        <v>169.8614757877311</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N42" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O42" t="n">
-        <v>159.5027778614688</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P42" t="n">
-        <v>128.015041247122</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R42" t="n">
-        <v>41.62297128701962</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S42" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T42" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H43" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I43" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J43" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K43" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L43" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M43" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N43" t="n">
-        <v>86.00626325567394</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O43" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R43" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S43" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T43" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.252954503067492</v>
+        <v>1.537437809132396</v>
       </c>
       <c r="H44" t="n">
-        <v>12.83182030453995</v>
+        <v>15.74528496277715</v>
       </c>
       <c r="I44" t="n">
-        <v>48.30452847950952</v>
+        <v>59.27207113657676</v>
       </c>
       <c r="J44" t="n">
-        <v>106.3429472547246</v>
+        <v>130.4881122528508</v>
       </c>
       <c r="K44" t="n">
-        <v>159.3805113695716</v>
+        <v>195.5678547134252</v>
       </c>
       <c r="L44" t="n">
-        <v>197.7256177428234</v>
+        <v>242.6192170646608</v>
       </c>
       <c r="M44" t="n">
-        <v>220.0078473867499</v>
+        <v>269.960626702819</v>
       </c>
       <c r="N44" t="n">
-        <v>223.5678043685904</v>
+        <v>274.3288718780165</v>
       </c>
       <c r="O44" t="n">
-        <v>211.108738028713</v>
+        <v>259.0409746634562</v>
       </c>
       <c r="P44" t="n">
-        <v>180.1764237342343</v>
+        <v>221.0854787505001</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.3049905931297</v>
+        <v>166.0259872109461</v>
       </c>
       <c r="R44" t="n">
-        <v>78.70590330331339</v>
+        <v>96.57607777791296</v>
       </c>
       <c r="S44" t="n">
-        <v>28.5517007386505</v>
+        <v>35.03436407560451</v>
       </c>
       <c r="T44" t="n">
-        <v>5.484808337177948</v>
+        <v>6.730134009477067</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1229950247305917</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.8226017485372067</v>
       </c>
       <c r="H45" t="n">
-        <v>6.474553742160015</v>
+        <v>7.944601097714602</v>
       </c>
       <c r="I45" t="n">
-        <v>23.08140185102458</v>
+        <v>28.32203388603979</v>
       </c>
       <c r="J45" t="n">
-        <v>63.33713086279241</v>
+        <v>77.71782572473671</v>
       </c>
       <c r="K45" t="n">
-        <v>108.2532448342894</v>
+        <v>132.8321428767296</v>
       </c>
       <c r="L45" t="n">
-        <v>145.559846959869</v>
+        <v>178.609208602344</v>
       </c>
       <c r="M45" t="n">
-        <v>169.8614757877311</v>
+        <v>208.4285219868176</v>
       </c>
       <c r="N45" t="n">
-        <v>174.3572036132365</v>
+        <v>213.617641509428</v>
       </c>
       <c r="O45" t="n">
-        <v>159.5027778614688</v>
+        <v>195.7178818109555</v>
       </c>
       <c r="P45" t="n">
-        <v>128.015041247122</v>
+        <v>157.0808549465478</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.57466490091964</v>
+        <v>105.0043916202933</v>
       </c>
       <c r="R45" t="n">
-        <v>41.62297128701962</v>
+        <v>51.07346645742413</v>
       </c>
       <c r="S45" t="n">
-        <v>12.45219577568013</v>
+        <v>15.27946668883802</v>
       </c>
       <c r="T45" t="n">
-        <v>2.70214118485243</v>
+        <v>3.31566231098988</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.05411853608797414</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6896416729899215</v>
       </c>
       <c r="H46" t="n">
-        <v>4.996977690491838</v>
+        <v>6.131541419855852</v>
       </c>
       <c r="I46" t="n">
-        <v>16.9018427404366</v>
+        <v>20.73940594773328</v>
       </c>
       <c r="J46" t="n">
-        <v>39.73568046927914</v>
+        <v>48.75766628038745</v>
       </c>
       <c r="K46" t="n">
-        <v>65.29792932973992</v>
+        <v>80.12382346191995</v>
       </c>
       <c r="L46" t="n">
-        <v>83.55886825184405</v>
+        <v>102.530908364338</v>
       </c>
       <c r="M46" t="n">
-        <v>88.10111075373281</v>
+        <v>108.1044669760474</v>
       </c>
       <c r="N46" t="n">
-        <v>86.00626325567394</v>
+        <v>105.5339843767214</v>
       </c>
       <c r="O46" t="n">
-        <v>79.44070463370866</v>
+        <v>97.47771574224821</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97524661994207</v>
+        <v>83.40902561325375</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.06253732834386</v>
+        <v>57.74808590827425</v>
       </c>
       <c r="R46" t="n">
-        <v>25.27101396438917</v>
+        <v>31.00879740552864</v>
       </c>
       <c r="S46" t="n">
-        <v>9.794689399460985</v>
+        <v>12.01857351928799</v>
       </c>
       <c r="T46" t="n">
-        <v>2.40141054655538</v>
+        <v>2.9466507845933</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03761681852672304</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38020,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>6.402750954171523</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>21.53038758755307</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>20.66047293755092</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
